--- a/Excel/A_UnitConfig.xlsx
+++ b/Excel/A_UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C30B3A-279B-4291-B2E7-779A92400DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6686A-00C3-45E9-948C-02E6BED395F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,17 +79,18 @@
     <t>带有强力攻击技能</t>
   </si>
   <si>
-    <t>UIGames/Unit/Skeleton/Skeleton.prefab</t>
-  </si>
-  <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>GameAssets/Unit/Prefabs/Skeleton.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +116,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +160,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +471,7 @@
   <dimension ref="C2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -487,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -516,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -590,13 +601,13 @@
       <c r="J6" s="1">
         <v>68</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>